--- a/target/classes/Deloitte.xlsx
+++ b/target/classes/Deloitte.xlsx
@@ -11,12 +11,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>SearchKey</t>
-  </si>
-  <si>
-    <t>Deloitte India</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Chennai</t>
   </si>
 </sst>
 </file>
@@ -277,10 +289,24 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/Deloitte.xlsx
+++ b/target/classes/Deloitte.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>From</t>
   </si>
@@ -29,6 +30,12 @@
   </si>
   <si>
     <t>Chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample PDF Text </t>
+  </si>
+  <si>
+    <t>Portable Document Format (PDF) is a file format used to present and exchange documents reliably, independent of software, hardware, or operating system. Invented by Adobe.</t>
   </si>
 </sst>
 </file>
@@ -78,6 +85,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -312,4 +323,32 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/target/classes/Deloitte.xlsx
+++ b/target/classes/Deloitte.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij_IDEA\automation_task-main\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA79A6E-167A-479B-B1C6-6E099EC2D350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -35,21 +44,24 @@
     <t xml:space="preserve">Sample PDF Text </t>
   </si>
   <si>
-    <t>Portable Document Format (PDF) is a file format used to present and exchange documents reliably, independent of software, hardware, or operating system. Invented by Adobe.</t>
+    <t>Portable Document Format (PDF) is a file format used to present and
+exchange documents reliably, independent of software, hardware, or
+operating system. Invented by Adobe.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -60,40 +72,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -283,20 +301,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -304,7 +325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -312,7 +333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -321,34 +342,37 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.38"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/target/classes/Deloitte.xlsx
+++ b/target/classes/Deloitte.xlsx
@@ -3,25 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij_IDEA\automation_task-main\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA79A6E-167A-479B-B1C6-6E099EC2D350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A92C0F1-3179-4618-8198-4B4DD117E48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>From</t>
   </si>
@@ -48,11 +49,30 @@
 exchange documents reliably, independent of software, hardware, or
 operating system. Invented by Adobe.</t>
   </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>{
+    "name": "Chandrika",
+    "job": "QA"
+}</t>
+  </si>
+  <si>
+    <t>{"name":"Chandrika","job":"QA","id":"795","createdAt":"2024-07-14T13:20:13.111Z"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -87,10 +107,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -353,13 +376,13 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -375,4 +398,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CEB3E-5ECF-4C83-812C-083DAC76F08C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="26.44140625"/>
+    <col min="2" max="2" customWidth="true" width="34.33203125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/Deloitte.xlsx
+++ b/target/classes/Deloitte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij_IDEA\automation_task-main\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_task-main\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A92C0F1-3179-4618-8198-4B4DD117E48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1F835F-87D7-4E2D-B259-2C038BD7DC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>From</t>
   </si>
@@ -59,13 +59,35 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"737","createdAt":"2024-07-17T17:30:22.554Z"}</t>
+  </si>
+  <si>
     <t>{
-    "name": "Chandrika",
-    "job": "QA"
+"email":"janet.weaver@reqres.in",
+"first_name":"Janet",
+"last_name":"Weaver"
 }</t>
   </si>
   <si>
-    <t>{"name":"Chandrika","job":"QA","id":"795","createdAt":"2024-07-14T13:20:13.111Z"}</t>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"893","createdAt":"2024-07-17T18:11:10.326Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"789","createdAt":"2024-07-17T18:20:20.030Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"961","createdAt":"2024-07-17T18:21:36.539Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"817","createdAt":"2024-07-17T18:36:52.481Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"948","createdAt":"2024-07-17T18:38:33.629Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"973","createdAt":"2024-07-17T18:39:23.581Z"}</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","id":"251","createdAt":"2024-07-22T02:13:36.264Z"}</t>
   </si>
 </sst>
 </file>
@@ -405,7 +427,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -425,12 +447,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
